--- a/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
+++ b/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariz\OneDrive\Pós-graduação\3 - Projetos\projeto EPS\Variáveis feitas\Variáveis Energy Innovation\InputData\dist-heat\BFoHPbF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d07 dist-heat\BFoHPbF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{401BDBAE-4AA4-43D4-9769-C9FF7CEDF3CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1558BCF9-0BE6-4FB1-B527-1AB384A2E994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17220" windowHeight="9912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -31,21 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Note:</t>
-  </si>
-  <si>
-    <t>We use these as a stand-in for the fuel use fractions of district heating</t>
-  </si>
-  <si>
-    <t>systems (about half of which are CHP systems), because we do not</t>
-  </si>
-  <si>
-    <t>have data specifically on fuel use fractions of district heating systems.</t>
-  </si>
-  <si>
-    <t>We don't have fuel fractions used by the total installed base, so we use</t>
   </si>
   <si>
     <t>electricity</t>
@@ -66,9 +54,6 @@
     <t>heat</t>
   </si>
   <si>
-    <t>the fuel fractions from the available years' newly installed capacities.</t>
-  </si>
-  <si>
     <t>BFoHPbF BAU Fraction of Heat Provided by Fuel</t>
   </si>
   <si>
@@ -82,9 +67,6 @@
   </si>
   <si>
     <t>hydrogen</t>
-  </si>
-  <si>
-    <t>Fuel use by fuel (fractions) are provided for CHP systems.</t>
   </si>
   <si>
     <t>Fraction of Heat Provided by Fuel (dimensionless)</t>
@@ -146,7 +128,7 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -172,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -212,9 +194,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,26 +229,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,26 +264,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,11 +440,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -505,53 +451,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -567,9 +483,7 @@
   </sheetPr>
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -579,7 +493,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2">
         <v>2015</v>
@@ -692,1481 +606,1131 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <f>$B2</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:AK7" si="0">$B2</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:R11" si="1">$B3</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" ref="S8:AH11" si="2">$B8</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f t="shared" ref="AI8:AK11" si="3">$B8</f>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
